--- a/Original_Excel_Files/B790-5802.xlsx
+++ b/Original_Excel_Files/B790-5802.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E369E-FFBE-4F49-B86A-012E0AF2D50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594B21D2-FEB0-4FC3-9D47-B7A4F1191DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30285" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="697">
   <si>
     <t>B1111 .B8</t>
   </si>
@@ -1374,6 +1374,742 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>ed. Burtt, Edwin A.</t>
+  </si>
+  <si>
+    <t>Willey</t>
+  </si>
+  <si>
+    <t>Basil</t>
+  </si>
+  <si>
+    <t>Yolton, John W.</t>
+  </si>
+  <si>
+    <t>Locke, John</t>
+  </si>
+  <si>
+    <t>Lowe, E.J.</t>
+  </si>
+  <si>
+    <t>E.J.</t>
+  </si>
+  <si>
+    <t>Mackie, J. L.</t>
+  </si>
+  <si>
+    <t>Tipton, I.C.</t>
+  </si>
+  <si>
+    <t>Tipton</t>
+  </si>
+  <si>
+    <t>I.C.</t>
+  </si>
+  <si>
+    <t>ed. Calkins, Mary</t>
+  </si>
+  <si>
+    <t>Berkeley, George</t>
+  </si>
+  <si>
+    <t>Berkeley, Geroge</t>
+  </si>
+  <si>
+    <t>ed. Flew, Antony</t>
+  </si>
+  <si>
+    <t>ed.Hendel, Charles W.</t>
+  </si>
+  <si>
+    <t>Hume, David</t>
+  </si>
+  <si>
+    <t>Zabeeh, Farhang</t>
+  </si>
+  <si>
+    <t>Zabeeh</t>
+  </si>
+  <si>
+    <t>Farhang</t>
+  </si>
+  <si>
+    <t>Mill, John Stuart ed. Sher, George</t>
+  </si>
+  <si>
+    <t>ed. Lerner, Max</t>
+  </si>
+  <si>
+    <t>Passmore</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ayer</t>
+  </si>
+  <si>
+    <t>A.J.</t>
+  </si>
+  <si>
+    <t>Caird</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Moore, Thomas</t>
+  </si>
+  <si>
+    <t>Dixon, W. Macneile</t>
+  </si>
+  <si>
+    <t>Macmurray</t>
+  </si>
+  <si>
+    <t>Lucas, George J.</t>
+  </si>
+  <si>
+    <t>trans. Bair, Lowell</t>
+  </si>
+  <si>
+    <t>trans. Cress, Donald A.</t>
+  </si>
+  <si>
+    <t>trans. Lafleur, Laurence J.</t>
+  </si>
+  <si>
+    <t>Cottingham, John ed.</t>
+  </si>
+  <si>
+    <t>Collins, James</t>
+  </si>
+  <si>
+    <t>Doney, Willis ed.</t>
+  </si>
+  <si>
+    <t>ed. Sesonske, Alexander and Fleming, Noel</t>
+  </si>
+  <si>
+    <t>Williams, Bernard</t>
+  </si>
+  <si>
+    <t>Wilson, Margaret Dauler</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Blaise</t>
+  </si>
+  <si>
+    <t>Daedalus</t>
+  </si>
+  <si>
+    <t>Althusser, Louis</t>
+  </si>
+  <si>
+    <t>Bachelard, Gaston</t>
+  </si>
+  <si>
+    <t>Pegis, Anton C. ed.</t>
+  </si>
+  <si>
+    <t>ed. Wild, John</t>
+  </si>
+  <si>
+    <t>De Chardin, Teilhard</t>
+  </si>
+  <si>
+    <t>Chardin, Pierre Teilhard de</t>
+  </si>
+  <si>
+    <t>Chardin, Teilhard de</t>
+  </si>
+  <si>
+    <t>De Lubac, Henri</t>
+  </si>
+  <si>
+    <t>Mortier, Jeanne and Auboux, Marie-Louise</t>
+  </si>
+  <si>
+    <t>Towers, Bernard</t>
+  </si>
+  <si>
+    <t>Til, C. Van</t>
+  </si>
+  <si>
+    <t>Weil, Simone</t>
+  </si>
+  <si>
+    <t>Maritain</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Harry G. Ed.</t>
+  </si>
+  <si>
+    <t>Copleston, Frederick</t>
+  </si>
+  <si>
+    <t>trans. Beck, Lewis White</t>
+  </si>
+  <si>
+    <t>Kant, Immanuel</t>
+  </si>
+  <si>
+    <t>trans. Muller, F Max</t>
+  </si>
+  <si>
+    <t>trans. Bernard, J. H.</t>
+  </si>
+  <si>
+    <t>Kemp, John</t>
+  </si>
+  <si>
+    <t>Hegel, Friedrich</t>
+  </si>
+  <si>
+    <t>Hegel, G.W.F.</t>
+  </si>
+  <si>
+    <t>Rockmore, Tom</t>
+  </si>
+  <si>
+    <t>W.T. Stace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.T. Stace
+</t>
+  </si>
+  <si>
+    <t>Engels</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Schnadelbach, Herbert</t>
+  </si>
+  <si>
+    <t>Buber, Martin</t>
+  </si>
+  <si>
+    <t>Glatzer, N. N. ed.</t>
+  </si>
+  <si>
+    <t>Herberg, Will Ed.</t>
+  </si>
+  <si>
+    <t>Manheim, Werner</t>
+  </si>
+  <si>
+    <t>Smith, R.G.</t>
+  </si>
+  <si>
+    <t>Cassirer</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>ed. Marx, Werner</t>
+  </si>
+  <si>
+    <t>Heidegger, Martin</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>J. Glenn</t>
+  </si>
+  <si>
+    <t>Guignon, Charles B.</t>
+  </si>
+  <si>
+    <t>Steiner, George</t>
+  </si>
+  <si>
+    <t>Husserl, Edmund</t>
+  </si>
+  <si>
+    <t>Jaspers, Karl</t>
+  </si>
+  <si>
+    <t>trans. Ashton, E.B.</t>
+  </si>
+  <si>
+    <t>Wallraff, Charles F.</t>
+  </si>
+  <si>
+    <t>Gelven</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Singer, Peter</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Fromm, Erich</t>
+  </si>
+  <si>
+    <t>Nietzsche, Friedrich</t>
+  </si>
+  <si>
+    <t>ed. Ansell-Pearson, Keith</t>
+  </si>
+  <si>
+    <t>Bartley III</t>
+  </si>
+  <si>
+    <t>W.W.</t>
+  </si>
+  <si>
+    <t>ed. Anscombe, G. E. M.</t>
+  </si>
+  <si>
+    <t>Wittgenstein, Ludwig</t>
+  </si>
+  <si>
+    <t>Gier, Nicholas F.</t>
+  </si>
+  <si>
+    <t>Hacker, P. M. S.</t>
+  </si>
+  <si>
+    <t>Kenny, Anthony</t>
+  </si>
+  <si>
+    <t>Kripke, Saul A.</t>
+  </si>
+  <si>
+    <t>ed. Pitcher, George</t>
+  </si>
+  <si>
+    <t>Coope, Christopher; Geach, Peter; Potts, Timothy; White; Roger</t>
+  </si>
+  <si>
+    <t>Croce</t>
+  </si>
+  <si>
+    <t>Benedetto</t>
+  </si>
+  <si>
+    <t>Duddington, Natalie trans.</t>
+  </si>
+  <si>
+    <t>Ouspensky</t>
+  </si>
+  <si>
+    <t>P.D.</t>
+  </si>
+  <si>
+    <t>ed. Bretall, Robert</t>
+  </si>
+  <si>
+    <t>Gasset</t>
+  </si>
+  <si>
+    <t>Jose Ortega y</t>
+  </si>
+  <si>
+    <t>Krishnamurti</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
+    <t>Bouso, Raquel and Heisig, James W. eds.</t>
+  </si>
+  <si>
+    <t>Kuykendall</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Brenner</t>
+  </si>
+  <si>
+    <t>William H.</t>
+  </si>
+  <si>
+    <t>Castell</t>
+  </si>
+  <si>
+    <t>Alburey</t>
+  </si>
+  <si>
+    <t>Randall, John Herman Jr.</t>
+  </si>
+  <si>
+    <t>Skolimowski, Henryk</t>
+  </si>
+  <si>
+    <t>Bahm</t>
+  </si>
+  <si>
+    <t>Archie J.</t>
+  </si>
+  <si>
+    <t>Blackwood</t>
+  </si>
+  <si>
+    <t>R.T.</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Gene H.</t>
+  </si>
+  <si>
+    <t>D'arcy</t>
+  </si>
+  <si>
+    <t>Martin C.</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Everett W.</t>
+  </si>
+  <si>
+    <t>Hampshire, Stuart</t>
+  </si>
+  <si>
+    <t>Miller, Jon and Brad Inwood Ed.</t>
+  </si>
+  <si>
+    <t>Miller, Jon and Brad  Inwood Ed.</t>
+  </si>
+  <si>
+    <t>Beck, Lewis White ed.</t>
+  </si>
+  <si>
+    <t>Berlin, Isaiah</t>
+  </si>
+  <si>
+    <t>Hazard, Paul</t>
+  </si>
+  <si>
+    <t>Aiken, Henry D.</t>
+  </si>
+  <si>
+    <t>Randall, John Herman</t>
+  </si>
+  <si>
+    <t>Gardiner, Patrick L. ed.</t>
+  </si>
+  <si>
+    <t>Rachels</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>White, Morton</t>
+  </si>
+  <si>
+    <t>eds. Baynes, Kenneth; Bohman, James and McCarthy, Thomas</t>
+  </si>
+  <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
+    <t>Richard J.</t>
+  </si>
+  <si>
+    <t>Freeman, David Hugh</t>
+  </si>
+  <si>
+    <t>Leiter</t>
+  </si>
+  <si>
+    <t>Brian Ed.</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>Kolakowski</t>
+  </si>
+  <si>
+    <t>Leszek</t>
+  </si>
+  <si>
+    <t>Troxell</t>
+  </si>
+  <si>
+    <t>Eugene A.</t>
+  </si>
+  <si>
+    <t>Weitz, Morris ed.</t>
+  </si>
+  <si>
+    <t>Gorovitz</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Hospers</t>
+  </si>
+  <si>
+    <t>Proust, Joelle</t>
+  </si>
+  <si>
+    <t>Proust</t>
+  </si>
+  <si>
+    <t>Joelle</t>
+  </si>
+  <si>
+    <t>Waismann</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>Donald H.</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Baillie</t>
+  </si>
+  <si>
+    <t>Lehman</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Schaff, Adam</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Ronald de</t>
+  </si>
+  <si>
+    <t>Locke, Berkeley, and Hume</t>
+  </si>
+  <si>
+    <t>Francoeur, Robert</t>
+  </si>
+  <si>
+    <t>Francoeur</t>
+  </si>
+  <si>
+    <t>Rachels, James</t>
+  </si>
+  <si>
+    <t>Stamos</t>
+  </si>
+  <si>
+    <t>David N.</t>
+  </si>
+  <si>
+    <t>Barrett</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>trans. Barnes, Hazel E.</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Robert C.</t>
+  </si>
+  <si>
+    <t>Ussher, Arland</t>
+  </si>
+  <si>
+    <t>Hayakawa</t>
+  </si>
+  <si>
+    <t>S.I.</t>
+  </si>
+  <si>
+    <t>Auer, J.A.C. Fagginger and Hartt, Julian</t>
+  </si>
+  <si>
+    <t>Fromm, Erich ed.</t>
+  </si>
+  <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>A.C.</t>
+  </si>
+  <si>
+    <t>Radhakrishnan</t>
+  </si>
+  <si>
+    <t>Sarvepalli</t>
+  </si>
+  <si>
+    <t>Trigg, Roger</t>
+  </si>
+  <si>
+    <t>Nicholson, Graeme</t>
+  </si>
+  <si>
+    <t>Bergmann</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Blanshard</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Ferre, Frederick</t>
+  </si>
+  <si>
+    <t>Thielicke, Helmut</t>
+  </si>
+  <si>
+    <t>Griffin, David Ray</t>
+  </si>
+  <si>
+    <t>De Waal</t>
+  </si>
+  <si>
+    <t>Cornelis</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Gail (Ed)</t>
+  </si>
+  <si>
+    <t>Menand</t>
+  </si>
+  <si>
+    <t>Louis Ed.</t>
+  </si>
+  <si>
+    <t>Thayer</t>
+  </si>
+  <si>
+    <t>H.S. Ed.</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>Quine, Willard Van Orman</t>
+  </si>
+  <si>
+    <t>Reiss</t>
+  </si>
+  <si>
+    <t>ed. Rosenberg, Jay F. and Travis, Charles</t>
+  </si>
+  <si>
+    <t>Rabate, Jean-Michel</t>
+  </si>
+  <si>
+    <t>ed. White, Morton</t>
+  </si>
+  <si>
+    <t>eds. Karnos, David D. and Shoemaker, Robert G.</t>
+  </si>
+  <si>
+    <t>Hilderband</t>
+  </si>
+  <si>
+    <t>David L.</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>John P.</t>
+  </si>
+  <si>
+    <t>Dewey, John</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>James, William</t>
+  </si>
+  <si>
+    <t>Langer, Susanne K.</t>
+  </si>
+  <si>
+    <t>Marcuse, Herbert</t>
+  </si>
+  <si>
+    <t>Markun</t>
+  </si>
+  <si>
+    <t>Alan Fletcher</t>
+  </si>
+  <si>
+    <t>Nagel</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Santayana, George</t>
+  </si>
+  <si>
+    <t>Taylor, Charles</t>
+  </si>
+  <si>
+    <t>Author</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +2214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1545,6 +2281,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,3888 +2626,5203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F494"/>
+  <dimension ref="A1:H494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30"/>
-    <col min="3" max="3" width="123.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="26">
         <v>1939</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="26">
         <v>1939</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="27">
         <v>1953</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" s="26">
         <v>1977</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="26">
         <v>1977</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="D9" s="26">
         <v>1995</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="30">
         <v>1995</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="26">
         <v>1995</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="31">
         <v>1976</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="31">
         <v>1976</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="26">
         <v>1977</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="30">
         <v>1977</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="26">
         <v>1977</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="26">
         <v>1929</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D18" s="26">
         <v>1929</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="26">
         <v>1984</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="26">
         <v>1984</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="26">
         <v>1907</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="26">
         <v>1907</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D23" s="31">
         <v>1962</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24" s="31">
         <v>1962</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" s="26">
         <v>1955</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D26" s="26">
         <v>1955</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="26">
         <v>1978</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" s="26">
         <v>1978</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D29" s="31">
         <v>1960</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D30" s="31">
         <v>1960</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" s="30">
         <v>1960</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" s="26">
         <v>1979</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33" s="31">
         <v>1979</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="26">
         <v>1961</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" s="26">
         <v>1961</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D36" s="27">
         <v>1966</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="E36" s="25"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D37" s="27">
         <v>1985</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" t="s">
+        <v>477</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="E40" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="D41" s="33">
         <v>1992</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D42" s="26">
         <v>1992</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="D43" s="26">
         <v>1992</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D44" s="26">
         <v>1958</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="D45" s="31">
         <v>1958</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" t="s">
+        <v>481</v>
+      </c>
+      <c r="D46" s="30">
         <v>1958</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" t="s">
+        <v>482</v>
+      </c>
+      <c r="C47" t="s">
+        <v>475</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" t="s">
+        <v>483</v>
+      </c>
+      <c r="D48" s="30">
         <v>1895</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="D49" s="31">
         <v>1895</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D50" s="31">
         <v>1961</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="D51" s="31">
         <v>1998</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="D52" s="26">
         <v>1960</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="D53" s="31">
         <v>2005</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="D54" s="33">
         <v>2005</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="E54" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="D55" s="26">
         <v>1967</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="E55" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" s="30">
         <v>1998</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="D57" s="26">
         <v>1998</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="E57" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="37" t="s">
+        <v>489</v>
+      </c>
+      <c r="D58" s="26">
         <v>1967</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="E58" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" s="30">
         <v>1967</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60" s="26">
         <v>1965</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8">
       <c r="A61" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D61" s="26">
         <v>1978</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="E61" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" s="30">
         <v>1978</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" t="s">
+        <v>492</v>
+      </c>
+      <c r="D63" s="30">
         <v>1996</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="D64" s="26">
         <v>1996</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="E64" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" s="4"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D65" s="27">
         <v>1995</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="D66" s="26">
         <v>1978</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="E66" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:7">
       <c r="A67" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="D67" s="26">
         <v>2001</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="E67" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:7">
       <c r="A68" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="D68" s="26">
         <v>1969</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="E68" s="13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:7">
       <c r="A69" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="D69" s="26">
         <v>1957</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="E69" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:7">
       <c r="A70" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" s="26">
         <v>1964</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1">
       <c r="A71" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="D71" s="26">
         <v>1970</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="E71" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1">
       <c r="A72" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="D72" s="33">
         <v>1970</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="E72" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" t="s">
+        <v>501</v>
+      </c>
+      <c r="D73" s="30">
         <v>1968</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="D74" s="26">
         <v>1968</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="D75" s="26">
         <v>1969</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B76" s="30">
+      <c r="B76" t="s">
+        <v>502</v>
+      </c>
+      <c r="D76" s="30">
         <v>1969</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" t="s">
+        <v>503</v>
+      </c>
+      <c r="D77" s="30">
         <v>1965</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="D78" s="26">
         <v>1965</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="E78" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7">
       <c r="A79" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D79" s="26">
         <v>1966</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="E79" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="D80" s="26">
         <v>1966</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="A81" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="13" t="s">
+      <c r="B81" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="B82" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" s="30"/>
+      <c r="E82" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B83" s="30">
+      <c r="B83" t="s">
+        <v>507</v>
+      </c>
+      <c r="D83" s="30">
         <v>1954</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D84" s="26">
         <v>1954</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="E84" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7">
       <c r="A85" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B85" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D85" s="26">
         <v>1986</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="E85" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="30">
         <v>1986</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" t="s">
+        <v>507</v>
+      </c>
+      <c r="D87" s="30">
         <v>1986</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1">
       <c r="A88" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="26">
+      <c r="B88" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D88" s="26">
         <v>1986</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="E88" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1">
+    <row r="89" spans="1:7" ht="15.75" thickBot="1">
       <c r="A89" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="D89" s="31">
         <v>1984</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" t="s">
+        <v>507</v>
+      </c>
+      <c r="D90" s="30">
         <v>1984</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" t="s">
+        <v>507</v>
+      </c>
+      <c r="D91" s="30">
         <v>1997</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="B92" s="26">
+      <c r="B92" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D92" s="26">
         <v>1997</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="E92" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:7">
       <c r="A93" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1">
+    <row r="94" spans="1:7" ht="15.75" thickBot="1">
       <c r="A94" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" t="s">
+        <v>508</v>
+      </c>
+      <c r="C94" t="s">
+        <v>509</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1">
+    <row r="95" spans="1:7" ht="15.75" thickBot="1">
       <c r="A95" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="D95" s="27">
         <v>1972</v>
       </c>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="30">
+      <c r="B96" t="s">
+        <v>512</v>
+      </c>
+      <c r="D96" s="30">
         <v>1963</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1">
       <c r="A97" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B97" s="30">
+      <c r="B97" t="s">
+        <v>512</v>
+      </c>
+      <c r="D97" s="30">
         <v>1963</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1">
       <c r="A98" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B98" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D98" s="33">
         <v>1963</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="E98" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="30">
+      <c r="B99" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99" s="30">
         <v>1963</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" t="s">
+        <v>512</v>
+      </c>
+      <c r="D100" s="30">
         <v>1963</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="30">
+      <c r="B101" t="s">
+        <v>512</v>
+      </c>
+      <c r="D101" s="30">
         <v>1963</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" t="s">
+        <v>512</v>
+      </c>
+      <c r="D102" s="30">
         <v>1963</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" thickBot="1">
       <c r="A103" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B103" s="26">
+      <c r="B103" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="D103" s="26">
         <v>1959</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="E103" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1">
+    <row r="104" spans="1:8" ht="15.75" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B104" s="31">
+      <c r="B104" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="D104" s="31">
         <v>1981</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:8">
       <c r="A105" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="B105" s="26">
+      <c r="B105" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="D105" s="26">
         <v>1915</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="E105" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:8">
       <c r="A106" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B106" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="D106" s="26">
         <v>1951</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="E106" s="13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1">
+    <row r="107" spans="1:8" ht="15.75" thickBot="1">
       <c r="A107" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="B107" s="26">
+      <c r="B107" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="D107" s="26">
         <v>1977</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="E107" s="13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1">
+    <row r="108" spans="1:8" ht="15.75" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="D108" s="31">
         <v>1968</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
       <c r="F108" s="20"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B109" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="D109" s="31">
         <v>1961</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
       <c r="F109" s="20"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
       <c r="A110" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" t="s">
+        <v>519</v>
+      </c>
+      <c r="D110" s="30">
         <v>1970</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B111" s="31">
+      <c r="B111" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" s="31">
         <v>1970</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:8">
       <c r="A112" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B112" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="D112" s="26">
         <v>2003</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="E112" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" t="s">
+        <v>520</v>
+      </c>
+      <c r="D113" s="30">
         <v>2003</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1">
       <c r="A114" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" t="s">
+        <v>521</v>
+      </c>
+      <c r="D114" s="30">
         <v>1955</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B115" s="31">
+      <c r="B115" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="D115" s="31">
         <v>1955</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
       <c r="F115" s="20"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" t="s">
         <v>436</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" t="s">
+        <v>523</v>
+      </c>
+      <c r="C116" t="s">
+        <v>524</v>
+      </c>
+      <c r="D116" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="C116" t="s">
+      <c r="E116" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B117" s="31">
+      <c r="B117" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" s="31">
         <v>1984</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:8">
       <c r="A118" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B118" s="30">
+      <c r="B118" t="s">
+        <v>525</v>
+      </c>
+      <c r="D118" s="30">
         <v>1984</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B119" s="26">
+      <c r="B119" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D119" s="26">
         <v>1965</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="E119" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:8">
       <c r="A120" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" t="s">
+        <v>526</v>
+      </c>
+      <c r="D120" s="30">
         <v>1965</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="30">
+      <c r="B121" t="s">
+        <v>526</v>
+      </c>
+      <c r="D121" s="30">
         <v>1957</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="D122" s="26">
         <v>1957</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="E122" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1">
+    <row r="123" spans="1:8" ht="15.75" thickBot="1">
       <c r="A123" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B123" s="31">
+      <c r="B123" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="D123" s="31">
         <v>1966</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:8">
       <c r="A124" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="30">
+      <c r="B124" t="s">
+        <v>527</v>
+      </c>
+      <c r="D124" s="30">
         <v>1966</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1">
       <c r="A125" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="30">
+      <c r="B125" t="s">
+        <v>528</v>
+      </c>
+      <c r="D125" s="30">
         <v>1960</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="E125" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B126" s="31">
+      <c r="B126" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="D126" s="31">
         <v>1960</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B127" s="31">
+      <c r="B127" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="D127" s="31">
         <v>1970</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="30">
+      <c r="B128" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" s="30">
         <v>1970</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B129" s="30">
+      <c r="B129" t="s">
+        <v>529</v>
+      </c>
+      <c r="D129" s="30">
         <v>1974</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:8">
       <c r="A130" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B130" s="26">
+      <c r="B130" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="D130" s="26">
         <v>1974</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="E130" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:8">
       <c r="A131" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B131" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="D131" s="26">
         <v>1966</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="E131" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B132" s="30">
+      <c r="B132" t="s">
+        <v>530</v>
+      </c>
+      <c r="D132" s="30">
         <v>1966</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="27">
+      <c r="B133" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D133" s="27">
         <v>1969</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B134" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" s="26">
         <v>1982</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="E134" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B135" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D135" s="26">
         <v>1979</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="E135" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>434</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" t="s">
+        <v>535</v>
+      </c>
+      <c r="C136" t="s">
+        <v>536</v>
+      </c>
+      <c r="D136" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E136" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:8">
       <c r="A137" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B137" s="26">
+      <c r="B137" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="D137" s="26">
         <v>1983</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="E137" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" thickBot="1">
       <c r="A138" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="D138" s="26">
         <v>1978</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="E138" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" thickBot="1">
       <c r="A139" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B139" s="33">
+      <c r="B139" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="D139" s="33">
         <v>1978</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="E139" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" thickBot="1">
       <c r="A140" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="B140" s="26">
+      <c r="B140" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="D140" s="26">
         <v>1965</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="E140" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B141" s="31">
+      <c r="B141" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="D141" s="31">
         <v>1982</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B142" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="D142" s="26">
         <v>1962</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="E142" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B143" s="26">
+      <c r="B143" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="D143" s="26">
         <v>1971</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="E143" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="30">
+      <c r="B144" t="s">
+        <v>540</v>
+      </c>
+      <c r="D144" s="30">
         <v>1971</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D144" s="4"/>
       <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1">
       <c r="A145" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="B145" s="26">
+      <c r="B145" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="D145" s="26">
         <v>1969</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="E145" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" thickBot="1">
       <c r="A146" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B146" s="31">
+      <c r="B146" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="D146" s="31">
         <v>1969</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" thickBot="1">
       <c r="A147" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B147" s="31">
+      <c r="B147" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="D147" s="31">
         <v>1969</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B148" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="D148" s="26">
         <v>1970</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="E148" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="F148" s="4"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B149" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D149" s="27">
         <v>1970</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" thickBot="1">
       <c r="A150" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B150" s="33">
+      <c r="B150" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="D150" s="33">
         <v>1980</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="E150" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B151" s="26">
+      <c r="B151" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D151" s="26">
         <v>1980</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="E151" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>439</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" t="s">
+        <v>546</v>
+      </c>
+      <c r="C152" t="s">
+        <v>547</v>
+      </c>
+      <c r="D152" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>440</v>
       </c>
-      <c r="F152" s="4"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" thickBot="1">
       <c r="A153" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B153" s="26">
+      <c r="B153" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D153" s="26">
         <v>1962</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="E153" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" thickBot="1">
       <c r="A154" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="B154" s="33">
+      <c r="B154" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="D154" s="33">
         <v>1962</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="E154" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
       <c r="F154" s="18"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B155" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="D155" s="26">
         <v>1927</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="E155" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F155" s="4"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="B156" s="26">
+      <c r="B156" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D156" s="26">
         <v>2009</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="E156" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="F156" s="4"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B157" s="27">
+      <c r="B157" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D157" s="27">
         <v>1985</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="B158" s="26">
+      <c r="B158" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="D158" s="26">
         <v>1967</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="E158" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" thickBot="1">
       <c r="A159" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B159" s="26">
+      <c r="B159" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="D159" s="26">
         <v>1980</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="E159" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" thickBot="1">
       <c r="A160" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B160" s="33">
+      <c r="B160" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D160" s="33">
         <v>1980</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="E160" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D160" s="18"/>
-      <c r="E160" s="20"/>
       <c r="F160" s="18"/>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G160" s="20"/>
+      <c r="H160" s="18"/>
+    </row>
+    <row r="161" spans="1:8" ht="15.75" thickBot="1">
       <c r="A161" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B161" s="31">
+      <c r="B161" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="D161" s="31">
         <v>1978</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="18"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B162" s="26">
+      <c r="B162" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="D162" s="26">
         <v>1985</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="E162" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="B163" s="26">
+      <c r="B163" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D163" s="26">
         <v>1981</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="E163" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="F163" s="4"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B164" s="26">
+      <c r="B164" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="D164" s="26">
         <v>1975</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="E164" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="F164" s="4"/>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="B165" s="26">
+      <c r="B165" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D165" s="26">
         <v>1973</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="E165" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="F165" s="4"/>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" thickBot="1">
       <c r="A166" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="B166" s="26">
+      <c r="B166" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D166" s="26">
         <v>1982</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="E166" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="F166" s="4"/>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" thickBot="1">
       <c r="A167" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B167" s="31">
+      <c r="B167" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="D167" s="31">
         <v>1966</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F167" s="4"/>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" thickBot="1">
       <c r="A168" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B168" s="31">
+      <c r="B168" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="D168" s="31">
         <v>1970</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" thickBot="1">
+    <row r="169" spans="1:8" ht="15.75" thickBot="1">
       <c r="A169" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="C169" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="D169" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="E169" s="15" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" thickBot="1">
+    <row r="170" spans="1:8" ht="15.75" thickBot="1">
       <c r="A170" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="B170" s="33">
+      <c r="B170" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D170" s="33">
         <v>1950</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="E170" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" thickBot="1">
       <c r="A171" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B171" s="31">
+      <c r="B171" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="D171" s="31">
         <v>1950</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>282</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" t="s">
+        <v>564</v>
+      </c>
+      <c r="C172" t="s">
+        <v>565</v>
+      </c>
+      <c r="D172" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E172" t="s">
         <v>284</v>
       </c>
-      <c r="F172" s="4"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" thickBot="1">
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" thickBot="1">
       <c r="A173" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="B173" s="26">
+      <c r="B173" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D173" s="26">
         <v>1946</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="E173" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" thickBot="1">
+    <row r="174" spans="1:8" ht="15.75" thickBot="1">
       <c r="A174" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="D174" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C174" t="s">
+      <c r="E174" t="s">
         <v>287</v>
       </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" ht="15.75" thickBot="1">
       <c r="A175" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B175" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D175" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>288</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" t="s">
+        <v>569</v>
+      </c>
+      <c r="C176" t="s">
+        <v>570</v>
+      </c>
+      <c r="D176" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1">
+    <row r="177" spans="1:6" ht="15.75" thickBot="1">
       <c r="A177" t="s">
         <v>290</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" t="s">
+        <v>569</v>
+      </c>
+      <c r="C177" t="s">
+        <v>570</v>
+      </c>
+      <c r="D177" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E177" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1">
+    <row r="178" spans="1:6" ht="15.75" thickBot="1">
       <c r="A178" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B178" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D178" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1">
+    <row r="179" spans="1:6" ht="15.75" thickBot="1">
       <c r="A179" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="D179" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>293</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" t="s">
+        <v>569</v>
+      </c>
+      <c r="C180" t="s">
+        <v>570</v>
+      </c>
+      <c r="D180" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C180" t="s">
+      <c r="E180" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>296</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" t="s">
+        <v>569</v>
+      </c>
+      <c r="C181" t="s">
+        <v>570</v>
+      </c>
+      <c r="D181" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E181" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1">
+    <row r="182" spans="1:6" ht="15.75" thickBot="1">
       <c r="A182" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D182" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1">
+    <row r="183" spans="1:6" ht="15.75" thickBot="1">
       <c r="A183" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B183" s="34" t="s">
+      <c r="B183" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C183" s="25"/>
+      <c r="D183" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="E183" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="D183" s="20"/>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="F183" s="20"/>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>299</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" t="s">
+        <v>569</v>
+      </c>
+      <c r="D184" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>302</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" t="s">
+        <v>569</v>
+      </c>
+      <c r="C185" t="s">
+        <v>570</v>
+      </c>
+      <c r="D185" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1">
+    <row r="186" spans="1:6" ht="15.75" thickBot="1">
       <c r="A186" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D186" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1">
+    <row r="187" spans="1:6" ht="15.75" thickBot="1">
       <c r="A187" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B187" s="33">
+      <c r="B187" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="D187" s="33">
         <v>2009</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="E187" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D187" s="20"/>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F187" s="20"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" thickBot="1">
       <c r="A188" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B188" s="31">
+      <c r="B188" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="D188" s="31">
         <v>2009</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1">
+    <row r="189" spans="1:6" ht="15.75" thickBot="1">
       <c r="A189" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="D189" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1">
+    <row r="190" spans="1:6" ht="15.75" thickBot="1">
       <c r="A190" t="s">
         <v>17</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" t="s">
+        <v>574</v>
+      </c>
+      <c r="C190" t="s">
+        <v>575</v>
+      </c>
+      <c r="D190" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1">
+    <row r="191" spans="1:6" ht="15.75" thickBot="1">
       <c r="A191" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B191" s="27">
+      <c r="B191" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D191" s="27">
         <v>1988</v>
       </c>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" thickBot="1">
       <c r="A192" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D192" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1">
+    <row r="193" spans="1:6" ht="15.75" thickBot="1">
       <c r="A193" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B193" s="33">
+      <c r="B193" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D193" s="33">
         <v>1965</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="E193" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1">
+    <row r="194" spans="1:6" ht="15.75" thickBot="1">
       <c r="A194" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B194" s="31">
+      <c r="B194" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="D194" s="31">
         <v>1965</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15.75" thickBot="1">
+    <row r="195" spans="1:6" ht="15.75" thickBot="1">
       <c r="A195" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B195" s="33">
+      <c r="B195" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D195" s="33">
         <v>1970</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="E195" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" thickBot="1">
+    <row r="196" spans="1:6" ht="15.75" thickBot="1">
       <c r="A196" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B196" s="31">
+      <c r="B196" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="D196" s="31">
         <v>1970</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75" thickBot="1">
+    <row r="197" spans="1:6" ht="15.75" thickBot="1">
       <c r="A197" t="s">
         <v>28</v>
       </c>
-      <c r="B197" s="30">
+      <c r="B197" t="s">
+        <v>580</v>
+      </c>
+      <c r="D197" s="30">
         <v>1970</v>
       </c>
-      <c r="C197" t="s">
+      <c r="E197" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1">
+    <row r="198" spans="1:6" ht="15.75" thickBot="1">
       <c r="A198" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B198" s="31">
+      <c r="B198" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="D198" s="31">
         <v>1970</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" thickBot="1">
+    <row r="199" spans="1:6" ht="15.75" thickBot="1">
       <c r="A199" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B199" s="26">
+      <c r="B199" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D199" s="26">
         <v>1981</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="E199" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75" thickBot="1">
+    <row r="200" spans="1:6" ht="15.75" thickBot="1">
       <c r="A200" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B200" s="33">
+      <c r="B200" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="D200" s="33">
         <v>1981</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="E200" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>32</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" t="s">
+        <v>582</v>
+      </c>
+      <c r="C201" t="s">
+        <v>583</v>
+      </c>
+      <c r="D201" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C201" t="s">
+      <c r="E201" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>35</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" t="s">
+        <v>584</v>
+      </c>
+      <c r="C202" t="s">
+        <v>585</v>
+      </c>
+      <c r="D202" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C202" t="s">
+      <c r="E202" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1">
+    <row r="203" spans="1:6" ht="15.75" thickBot="1">
       <c r="A203" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B203" s="27">
+      <c r="B203" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D203" s="27">
         <v>1999</v>
       </c>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" thickBot="1">
       <c r="A204" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B204" s="33" t="s">
+      <c r="B204" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C204" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="D204" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="E204" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D204" s="20"/>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F204" s="20"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" thickBot="1">
       <c r="A205" t="s">
         <v>441</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" t="s">
+        <v>590</v>
+      </c>
+      <c r="C205" t="s">
+        <v>591</v>
+      </c>
+      <c r="D205" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="C205" t="s">
+      <c r="E205" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1">
+    <row r="206" spans="1:6" ht="15.75" thickBot="1">
       <c r="A206" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B206" s="33">
+      <c r="B206" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="D206" s="33">
         <v>1956</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="E206" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1">
+    <row r="207" spans="1:6" ht="15.75" thickBot="1">
       <c r="A207" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B207" s="31">
+      <c r="B207" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="D207" s="31">
         <v>1956</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" thickBot="1">
+    <row r="208" spans="1:6" ht="15.75" thickBot="1">
       <c r="A208" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B208" s="31">
+      <c r="B208" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="D208" s="31">
         <v>2003</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" thickBot="1">
+    <row r="209" spans="1:5" ht="15.75" thickBot="1">
       <c r="A209" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B209" s="33">
+      <c r="B209" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D209" s="33">
         <v>2003</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="E209" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="30">
+      <c r="B210" t="s">
+        <v>595</v>
+      </c>
+      <c r="D210" s="30">
         <v>1966</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="E210" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" thickBot="1">
+    <row r="211" spans="1:5" ht="15.75" thickBot="1">
       <c r="A211" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B211" s="26">
+      <c r="B211" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="D211" s="26">
         <v>1966</v>
       </c>
-      <c r="C211" s="13" t="s">
+      <c r="E211" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" thickBot="1">
+    <row r="212" spans="1:5" ht="15.75" thickBot="1">
       <c r="A212" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B212" s="31">
+      <c r="B212" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="D212" s="31">
         <v>1956</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B213" s="30">
+      <c r="B213" t="s">
+        <v>596</v>
+      </c>
+      <c r="D213" s="30">
         <v>1956</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="E213" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" thickBot="1">
+    <row r="214" spans="1:5" ht="15.75" thickBot="1">
       <c r="A214" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B214" s="30">
+      <c r="B214" t="s">
+        <v>597</v>
+      </c>
+      <c r="D214" s="30">
         <v>1963</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="E214" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" thickBot="1">
+    <row r="215" spans="1:5" ht="15.75" thickBot="1">
       <c r="A215" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B215" s="31">
+      <c r="B215" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="D215" s="31">
         <v>1963</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B216" s="30">
+      <c r="B216" t="s">
+        <v>598</v>
+      </c>
+      <c r="D216" s="30">
         <v>1956</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="E216" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" thickBot="1">
+    <row r="217" spans="1:5" ht="15.75" thickBot="1">
       <c r="A217" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B217" s="26">
+      <c r="B217" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="D217" s="26">
         <v>1956</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="E217" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" thickBot="1">
+    <row r="218" spans="1:5" ht="15.75" thickBot="1">
       <c r="A218" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B218" s="31">
+      <c r="B218" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="D218" s="31">
         <v>1977</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" thickBot="1">
+    <row r="219" spans="1:5" ht="15.75" thickBot="1">
       <c r="A219" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B219" s="31">
+      <c r="B219" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="D219" s="31">
         <v>1969</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B220" s="30">
+      <c r="B220" t="s">
+        <v>600</v>
+      </c>
+      <c r="D220" s="30">
         <v>1969</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="E220" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>56</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" t="s">
+        <v>601</v>
+      </c>
+      <c r="C221" t="s">
+        <v>602</v>
+      </c>
+      <c r="D221" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C221" t="s">
+      <c r="E221" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" thickBot="1">
+    <row r="222" spans="1:5" ht="15.75" thickBot="1">
       <c r="A222" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B222" s="30">
+      <c r="B222" t="s">
+        <v>603</v>
+      </c>
+      <c r="D222" s="30">
         <v>1955</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" thickBot="1">
+    <row r="223" spans="1:5" ht="15.75" thickBot="1">
       <c r="A223" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B223" s="31">
+      <c r="B223" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="D223" s="31">
         <v>1955</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" thickBot="1">
+    <row r="224" spans="1:5" ht="15.75" thickBot="1">
       <c r="A224" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B224" s="31">
+      <c r="B224" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="D224" s="31">
         <v>1987</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1">
+    <row r="225" spans="1:6" ht="15.75" thickBot="1">
       <c r="A225" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D225" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="C225" t="s">
+      <c r="E225" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75" thickBot="1">
+    <row r="226" spans="1:6" ht="15.75" thickBot="1">
       <c r="A226" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B226" s="31">
+      <c r="B226" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="D226" s="31">
         <v>1962</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.75" thickBot="1">
+    <row r="227" spans="1:6" ht="15.75" thickBot="1">
       <c r="A227" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B227" s="33">
+      <c r="B227" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="D227" s="33">
         <v>1962</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="E227" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" thickBot="1">
+    <row r="228" spans="1:6" ht="15.75" thickBot="1">
       <c r="A228" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B228" s="27">
+      <c r="B228" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="D228" s="27">
         <v>2004</v>
       </c>
-      <c r="C228" s="3"/>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1">
       <c r="A229" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="D229" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C229" t="s">
+      <c r="E229" t="s">
         <v>68</v>
       </c>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" thickBot="1">
       <c r="A230" t="s">
         <v>447</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" t="s">
+        <v>612</v>
+      </c>
+      <c r="C230" t="s">
+        <v>613</v>
+      </c>
+      <c r="D230" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C230" t="s">
+      <c r="E230" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75" thickBot="1">
+    <row r="231" spans="1:6" ht="15.75" thickBot="1">
       <c r="A231" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="D231" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C231" t="s">
+      <c r="E231" t="s">
         <v>71</v>
       </c>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" thickBot="1">
       <c r="A232" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B232" s="33">
+      <c r="B232" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="D232" s="33">
         <v>1966</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="E232" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.75" thickBot="1">
+    <row r="233" spans="1:6" ht="15.75" thickBot="1">
       <c r="A233" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B233" s="31">
+      <c r="B233" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="D233" s="31">
         <v>1966</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75" thickBot="1">
+    <row r="234" spans="1:6" ht="15.75" thickBot="1">
       <c r="A234" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="C234" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D234" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C234" t="s">
+      <c r="E234" t="s">
         <v>77</v>
       </c>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" thickBot="1">
       <c r="A235" t="s">
         <v>78</v>
       </c>
-      <c r="B235" s="30">
+      <c r="B235" t="s">
+        <v>619</v>
+      </c>
+      <c r="C235" t="s">
+        <v>475</v>
+      </c>
+      <c r="D235" s="30">
         <v>1953</v>
       </c>
-      <c r="C235" t="s">
+      <c r="E235" t="s">
         <v>79</v>
       </c>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" thickBot="1">
       <c r="A236" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D236" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C236" t="s">
+      <c r="E236" t="s">
         <v>79</v>
       </c>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" thickBot="1">
       <c r="A237" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B237" s="33">
+      <c r="B237" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="D237" s="33">
         <v>1989</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="E237" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1">
+    <row r="238" spans="1:6" ht="15.75" thickBot="1">
       <c r="A238" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B238" s="31">
+      <c r="B238" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="D238" s="31">
         <v>1989</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.75" thickBot="1">
+    <row r="239" spans="1:6" ht="15.75" thickBot="1">
       <c r="A239" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="C239" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="D239" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C239" t="s">
+      <c r="E239" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.75" thickBot="1">
+    <row r="240" spans="1:6" ht="15.75" thickBot="1">
       <c r="A240" t="s">
         <v>85</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" t="s">
+        <v>623</v>
+      </c>
+      <c r="C240" t="s">
+        <v>624</v>
+      </c>
+      <c r="D240" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C240" t="s">
+      <c r="E240" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15.75" thickBot="1">
+    <row r="241" spans="1:6" ht="15.75" thickBot="1">
       <c r="A241" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="C241" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="D241" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E241" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15.75" thickBot="1">
+    <row r="242" spans="1:6" ht="15.75" thickBot="1">
       <c r="A242" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B242" s="27" t="s">
+      <c r="B242" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D242" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="E242" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.75" thickBot="1">
+    <row r="243" spans="1:6" ht="15.75" thickBot="1">
       <c r="A243" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C243" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D243" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C243" t="s">
+      <c r="E243" t="s">
         <v>74</v>
       </c>
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" thickBot="1">
       <c r="A244" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C244" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D244" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C244" t="s">
+      <c r="E244" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15.75" thickBot="1">
+    <row r="245" spans="1:6" ht="15.75" thickBot="1">
       <c r="A245" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B245" s="27">
+      <c r="B245" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="D245" s="27">
         <v>1991</v>
       </c>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" thickBot="1">
       <c r="A246" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="C246" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="D246" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C246" t="s">
+      <c r="E246" t="s">
         <v>96</v>
       </c>
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" thickBot="1">
       <c r="A247" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C247" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D247" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C247" t="s">
+      <c r="E247" t="s">
         <v>99</v>
       </c>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" thickBot="1">
       <c r="A248" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C248" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D248" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C248" t="s">
+      <c r="E248" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1">
+    <row r="249" spans="1:6" ht="15.75" thickBot="1">
       <c r="A249" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B249" s="33">
+      <c r="B249" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="D249" s="33">
         <v>1963</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="E249" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" thickBot="1">
       <c r="A250" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B250" s="31">
+      <c r="B250" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="D250" s="31">
         <v>1963</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1">
+    <row r="251" spans="1:6" ht="15.75" thickBot="1">
       <c r="A251" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B251" s="27">
+      <c r="B251" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="D251" s="27">
         <v>1987</v>
       </c>
-      <c r="C251" s="3"/>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" thickBot="1">
       <c r="A252" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B252" s="31">
+      <c r="B252" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="D252" s="31">
         <v>1990</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:6">
       <c r="A253" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B253" s="30">
+      <c r="B253" t="s">
+        <v>634</v>
+      </c>
+      <c r="D253" s="30">
         <v>1990</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="E253" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" thickBot="1">
       <c r="A254" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B254" s="30">
+      <c r="B254" t="s">
+        <v>635</v>
+      </c>
+      <c r="D254" s="30">
         <v>1970</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="E254" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" thickBot="1">
       <c r="A255" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B255" s="31">
+      <c r="B255" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="D255" s="31">
         <v>1970</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1">
+    <row r="256" spans="1:6" ht="15.75" thickBot="1">
       <c r="A256" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="C256" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="D256" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C256" t="s">
+      <c r="E256" t="s">
         <v>106</v>
       </c>
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" thickBot="1">
       <c r="A257" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D257" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C257" t="s">
+      <c r="E257" t="s">
         <v>110</v>
       </c>
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" thickBot="1">
       <c r="A258" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B258" s="33">
+      <c r="B258" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="D258" s="33">
         <v>1990</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="E258" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" thickBot="1">
       <c r="A259" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B259" s="31">
+      <c r="B259" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="D259" s="31">
         <v>1990</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.75" thickBot="1">
+    <row r="260" spans="1:6" ht="15.75" thickBot="1">
       <c r="A260" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B260" s="27">
+      <c r="B260" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="D260" s="27">
         <v>1991</v>
       </c>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B261" s="27">
+      <c r="B261" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D261" s="27">
         <v>2008</v>
       </c>
-      <c r="C261" s="3"/>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="27">
+      <c r="B262" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D262" s="27">
         <v>1962</v>
       </c>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B263" s="32">
+      <c r="B263" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="C263" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="D263" s="32">
         <v>1962</v>
       </c>
-      <c r="C263" s="14"/>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263" s="14"/>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B264" s="32">
+      <c r="B264" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="C264" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="D264" s="32">
         <v>1958</v>
       </c>
-      <c r="C264" s="14"/>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264" s="14"/>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B265" s="27">
+      <c r="B265" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D265" s="27">
         <v>1958</v>
       </c>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="B266" s="26">
+      <c r="B266" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="D266" s="26">
         <v>1967</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="E266" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D266" s="16"/>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="F266" s="16"/>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B267" s="27">
+      <c r="B267" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D267" s="27">
         <v>1970</v>
       </c>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B268" s="32">
+      <c r="B268" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="C268" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="D268" s="32">
         <v>1970</v>
       </c>
-      <c r="C268" s="14"/>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268" s="14"/>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B269" s="30">
+      <c r="B269" t="s">
+        <v>645</v>
+      </c>
+      <c r="D269" s="30">
         <v>1955</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="E269" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B270" s="26">
+      <c r="B270" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="D270" s="26">
         <v>1955</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="E270" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>118</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" t="s">
+        <v>646</v>
+      </c>
+      <c r="C271" t="s">
+        <v>647</v>
+      </c>
+      <c r="D271" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C271" t="s">
+      <c r="E271" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:6">
       <c r="A272" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B272" s="26">
+      <c r="B272" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="D272" s="26">
         <v>1981</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="E272" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:5">
       <c r="A273" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B273" s="30">
+      <c r="B273" t="s">
+        <v>648</v>
+      </c>
+      <c r="D273" s="30">
         <v>1981</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="E273" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:5">
       <c r="A274" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B274" s="30">
+      <c r="B274" t="s">
+        <v>548</v>
+      </c>
+      <c r="D274" s="30">
         <v>1971</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="E274" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" thickBot="1">
+    <row r="275" spans="1:5" ht="15.75" thickBot="1">
       <c r="A275" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B275" s="26">
+      <c r="B275" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="D275" s="26">
         <v>1971</v>
       </c>
-      <c r="C275" s="13" t="s">
+      <c r="E275" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" thickBot="1">
+    <row r="276" spans="1:5" ht="15.75" thickBot="1">
       <c r="A276" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B276" s="31">
+      <c r="B276" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="D276" s="31">
         <v>1966</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" thickBot="1">
+    <row r="277" spans="1:5" ht="15.75" thickBot="1">
       <c r="A277" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B277" s="30">
+      <c r="B277" t="s">
+        <v>649</v>
+      </c>
+      <c r="D277" s="30">
         <v>1966</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="E277" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" thickBot="1">
+    <row r="278" spans="1:5" ht="15.75" thickBot="1">
       <c r="A278" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C278" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="D278" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C278" t="s">
+      <c r="E278" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" thickBot="1">
+    <row r="279" spans="1:5" ht="15.75" thickBot="1">
       <c r="A279" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B279" s="27" t="s">
+      <c r="B279" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="D279" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="E279" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" thickBot="1">
+    <row r="280" spans="1:5" ht="15.75" thickBot="1">
       <c r="A280" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="C280" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="D280" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C280" t="s">
+      <c r="E280" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" thickBot="1">
+    <row r="281" spans="1:5" ht="15.75" thickBot="1">
       <c r="A281" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B281" s="33">
+      <c r="B281" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="D281" s="33">
         <v>1973</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="E281" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:5">
       <c r="A282" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B282" s="26">
+      <c r="B282" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="D282" s="26">
         <v>1973</v>
       </c>
-      <c r="C282" s="13" t="s">
+      <c r="E282" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:5">
       <c r="A283" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="B283" s="26">
+      <c r="B283" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="D283" s="26">
         <v>1983</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="E283" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" thickBot="1">
+    <row r="284" spans="1:5" ht="15.75" thickBot="1">
       <c r="A284" t="s">
         <v>134</v>
       </c>
-      <c r="B284" s="30">
+      <c r="B284" t="s">
+        <v>656</v>
+      </c>
+      <c r="C284" t="s">
+        <v>657</v>
+      </c>
+      <c r="D284" s="30">
         <v>1967</v>
       </c>
-      <c r="C284" t="s">
+      <c r="E284" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" thickBot="1">
+    <row r="285" spans="1:5" ht="15.75" thickBot="1">
       <c r="A285" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B285" s="27">
+      <c r="B285" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="D285" s="27">
         <v>1967</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="E285" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>136</v>
       </c>
-      <c r="B286" s="30" t="s">
+      <c r="B286" t="s">
+        <v>658</v>
+      </c>
+      <c r="C286" t="s">
+        <v>659</v>
+      </c>
+      <c r="D286" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C286" t="s">
+      <c r="E286" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" thickBot="1">
+    <row r="287" spans="1:5" ht="15.75" thickBot="1">
       <c r="A287" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B287" s="30">
+      <c r="B287" t="s">
+        <v>660</v>
+      </c>
+      <c r="D287" s="30">
         <v>1961</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="E287" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" thickBot="1">
+    <row r="288" spans="1:5" ht="15.75" thickBot="1">
       <c r="A288" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B288" s="31">
+      <c r="B288" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="D288" s="31">
         <v>1961</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15.75" thickBot="1">
+    <row r="289" spans="1:6" ht="15.75" thickBot="1">
       <c r="A289" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B289" s="31">
+      <c r="B289" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="D289" s="31">
         <v>1961</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15.75" thickBot="1">
+    <row r="290" spans="1:6" ht="15.75" thickBot="1">
       <c r="A290" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B290" s="33">
+      <c r="B290" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="D290" s="33">
         <v>1961</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="E290" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15.75" thickBot="1">
+    <row r="291" spans="1:6" ht="15.75" thickBot="1">
       <c r="A291" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B291" s="33">
+      <c r="B291" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="D291" s="33">
         <v>1990</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="E291" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:6">
       <c r="A292" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B292" s="26">
+      <c r="B292" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="D292" s="26">
         <v>1990</v>
       </c>
-      <c r="C292" s="13" t="s">
+      <c r="E292" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15.75" thickBot="1">
+    <row r="293" spans="1:6" ht="15.75" thickBot="1">
       <c r="A293" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B293" s="27">
+      <c r="B293" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D293" s="27">
         <v>2005</v>
       </c>
-      <c r="C293" s="3"/>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" thickBot="1">
       <c r="A294" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B294" s="32">
+      <c r="B294" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="C294" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="D294" s="32">
         <v>2005</v>
       </c>
-      <c r="C294" s="14"/>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294" s="14"/>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B295" s="27" t="s">
+      <c r="B295" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D295" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="E295" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D295" s="2"/>
-    </row>
-    <row r="296" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" thickBot="1">
       <c r="A296" t="s">
         <v>146</v>
       </c>
-      <c r="B296" s="30" t="s">
+      <c r="B296" t="s">
+        <v>665</v>
+      </c>
+      <c r="C296" t="s">
+        <v>666</v>
+      </c>
+      <c r="D296" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C296" t="s">
+      <c r="E296" t="s">
         <v>148</v>
       </c>
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" thickBot="1">
       <c r="A297" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B297" s="27">
+      <c r="B297" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C297" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="D297" s="27">
         <v>1997</v>
       </c>
-      <c r="C297" s="3"/>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" thickBot="1">
       <c r="A298" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B298" s="32">
+      <c r="B298" s="40" t="s">
+        <v>667</v>
+      </c>
+      <c r="C298" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="D298" s="32">
         <v>1997</v>
       </c>
-      <c r="C298" s="14"/>
-    </row>
-    <row r="299" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E298" s="14"/>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" thickBot="1">
       <c r="A299" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B299" s="32">
+      <c r="B299" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="C299" s="39" t="s">
+        <v>670</v>
+      </c>
+      <c r="D299" s="32">
         <v>1982</v>
       </c>
-      <c r="C299" s="14"/>
-    </row>
-    <row r="300" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E299" s="14"/>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" thickBot="1">
       <c r="A300" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B300" s="27">
+      <c r="B300" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="D300" s="27">
         <v>1982</v>
       </c>
-      <c r="C300" s="3"/>
-    </row>
-    <row r="301" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" thickBot="1">
       <c r="A301" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B301" s="30" t="s">
+      <c r="B301" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="D301" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C301" t="s">
+      <c r="E301" t="s">
         <v>153</v>
       </c>
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>154</v>
       </c>
-      <c r="B302" s="30" t="s">
+      <c r="B302" t="s">
+        <v>673</v>
+      </c>
+      <c r="C302" t="s">
+        <v>630</v>
+      </c>
+      <c r="D302" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C302" t="s">
+      <c r="E302" t="s">
         <v>155</v>
       </c>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" thickBot="1">
       <c r="A303" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="B303" s="26">
+      <c r="B303" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="D303" s="26">
         <v>1981</v>
       </c>
-      <c r="C303" s="13" t="s">
+      <c r="E303" s="13" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15.75" thickBot="1">
+    <row r="304" spans="1:6" ht="15.75" thickBot="1">
       <c r="A304" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B304" s="30" t="s">
+      <c r="B304" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="C304" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="D304" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C304" t="s">
+      <c r="E304" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:5">
       <c r="A305" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B305" s="26">
+      <c r="B305" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="D305" s="26">
         <v>1971</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="E305" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>307</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" t="s">
+        <v>673</v>
+      </c>
+      <c r="C306" t="s">
+        <v>630</v>
+      </c>
+      <c r="D306" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C306" t="s">
+      <c r="E306" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:5">
       <c r="A307" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B307" s="27">
+      <c r="B307" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D307" s="27">
         <v>2002</v>
       </c>
-      <c r="C307" s="10" t="s">
+      <c r="E307" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:5">
       <c r="A308" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B308" s="32">
+      <c r="B308" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="D308" s="32">
         <v>2002</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="E308" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:5">
       <c r="A309" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B309" s="30">
+      <c r="B309" t="s">
+        <v>677</v>
+      </c>
+      <c r="D309" s="30">
         <v>2002</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="E309" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:5">
       <c r="A310" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B310" s="26">
+      <c r="B310" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="D310" s="26">
         <v>1977</v>
       </c>
-      <c r="C310" s="13" t="s">
+      <c r="E310" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:5">
       <c r="A311" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B311" s="26">
+      <c r="B311" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="D311" s="26">
         <v>1993</v>
       </c>
-      <c r="C311" s="13" t="s">
+      <c r="E311" s="13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" thickBot="1">
+    <row r="312" spans="1:5" ht="15.75" thickBot="1">
       <c r="A312" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B312" s="26">
+      <c r="B312" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D312" s="26">
         <v>1972</v>
       </c>
-      <c r="C312" s="13" t="s">
+      <c r="E312" s="13" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" thickBot="1">
+    <row r="313" spans="1:5" ht="15.75" thickBot="1">
       <c r="A313" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B313" s="32">
+      <c r="B313" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="C313" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D313" s="32">
         <v>2003</v>
       </c>
-      <c r="C313" s="14"/>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="E313" s="14"/>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B314" s="27">
+      <c r="B314" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D314" s="27">
         <v>2003</v>
       </c>
-      <c r="C314" s="3"/>
-    </row>
-    <row r="315" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E314" s="3"/>
+    </row>
+    <row r="315" spans="1:5" ht="15.75" thickBot="1">
       <c r="A315" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B315" s="27">
+      <c r="B315" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D315" s="27">
         <v>1990</v>
       </c>
-      <c r="C315" s="3"/>
-    </row>
-    <row r="316" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E315" s="3"/>
+    </row>
+    <row r="316" spans="1:5" ht="15.75" thickBot="1">
       <c r="A316" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B316" s="32">
+      <c r="B316" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="C316" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="D316" s="32">
         <v>1990</v>
       </c>
-      <c r="C316" s="14"/>
-    </row>
-    <row r="317" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E316" s="14"/>
+    </row>
+    <row r="317" spans="1:5" ht="15.75" thickBot="1">
       <c r="A317" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B317" s="31">
+      <c r="B317" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="D317" s="31">
         <v>1948</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" thickBot="1">
+    <row r="318" spans="1:5" ht="15.75" thickBot="1">
       <c r="A318" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B318" s="31">
+      <c r="B318" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="D318" s="31">
         <v>1948</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" thickBot="1">
+    <row r="319" spans="1:5" ht="15.75" thickBot="1">
       <c r="A319" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B319" s="30" t="s">
+      <c r="B319" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D319" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C319" t="s">
+      <c r="E319" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:5">
       <c r="A320" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B320" s="26">
+      <c r="B320" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="D320" s="26">
         <v>1968</v>
       </c>
-      <c r="C320" s="13" t="s">
+      <c r="E320" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" thickBot="1">
+    <row r="321" spans="1:5" ht="15.75" thickBot="1">
       <c r="A321" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B321" s="26">
+      <c r="B321" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="D321" s="26">
         <v>1968</v>
       </c>
-      <c r="C321" s="13" t="s">
+      <c r="E321" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" thickBot="1">
+    <row r="322" spans="1:5" ht="15.75" thickBot="1">
       <c r="A322" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B322" s="31">
+      <c r="B322" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="D322" s="31">
         <v>1970</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" thickBot="1">
+    <row r="323" spans="1:5" ht="15.75" thickBot="1">
       <c r="A323" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B323" s="31">
+      <c r="B323" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="D323" s="31">
         <v>1970</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:5">
       <c r="A324" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B324" s="26">
+      <c r="B324" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="D324" s="26">
         <v>1962</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="E324" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" thickBot="1">
+    <row r="325" spans="1:5" ht="15.75" thickBot="1">
       <c r="A325" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B325" s="26">
+      <c r="B325" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="D325" s="26">
         <v>1962</v>
       </c>
-      <c r="C325" s="13" t="s">
+      <c r="E325" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" thickBot="1">
+    <row r="326" spans="1:5" ht="15.75" thickBot="1">
       <c r="A326" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B326" s="31">
+      <c r="B326" s="38" t="s">
+        <v>689</v>
+      </c>
+      <c r="D326" s="31">
         <v>1969</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" thickBot="1">
+    <row r="327" spans="1:5" ht="15.75" thickBot="1">
       <c r="A327" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B327" s="33">
+      <c r="B327" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="D327" s="33">
         <v>1969</v>
       </c>
-      <c r="C327" s="18" t="s">
+      <c r="E327" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:5">
       <c r="A328" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B328" s="26">
+      <c r="B328" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="D328" s="26">
         <v>1969</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="E328" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" thickBot="1">
+    <row r="329" spans="1:5" ht="15.75" thickBot="1">
       <c r="A329" t="s">
         <v>168</v>
       </c>
-      <c r="B329" s="30" t="s">
+      <c r="B329" t="s">
+        <v>690</v>
+      </c>
+      <c r="C329" t="s">
+        <v>691</v>
+      </c>
+      <c r="D329" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="C329" t="s">
+      <c r="E329" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" thickBot="1">
+    <row r="330" spans="1:5" ht="15.75" thickBot="1">
       <c r="A330" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B330" s="27">
+      <c r="B330" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="D330" s="27">
         <v>2009</v>
       </c>
-      <c r="C330" s="3"/>
-    </row>
-    <row r="331" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E330" s="3"/>
+    </row>
+    <row r="331" spans="1:5" ht="15.75" thickBot="1">
       <c r="A331" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B331" s="32">
+      <c r="B331" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="C331" s="40" t="s">
+        <v>693</v>
+      </c>
+      <c r="D331" s="32">
         <v>2009</v>
       </c>
-      <c r="C331" s="14"/>
-    </row>
-    <row r="332" spans="1:3" ht="15.75" thickBot="1">
+      <c r="E331" s="14"/>
+    </row>
+    <row r="332" spans="1:5" ht="15.75" thickBot="1">
       <c r="A332" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B332" s="33">
+      <c r="B332" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="D332" s="33">
         <v>1961</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="E332" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" thickBot="1">
+    <row r="333" spans="1:5" ht="15.75" thickBot="1">
       <c r="A333" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B333" s="31">
+      <c r="B333" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="D333" s="31">
         <v>1961</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:5">
       <c r="A334" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B334" s="26">
+      <c r="B334" s="37" t="s">
+        <v>694</v>
+      </c>
+      <c r="D334" s="26">
         <v>1961</v>
       </c>
-      <c r="C334" s="13" t="s">
+      <c r="E334" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75" thickBot="1">
+    <row r="335" spans="1:5" ht="15.75" thickBot="1">
       <c r="A335" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B335" s="26">
+      <c r="B335" s="37" t="s">
+        <v>694</v>
+      </c>
+      <c r="D335" s="26">
         <v>1944</v>
       </c>
-      <c r="C335" s="13" t="s">
+      <c r="E335" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75" thickBot="1">
+    <row r="336" spans="1:5" ht="15.75" thickBot="1">
       <c r="A336" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B336" s="31">
+      <c r="B336" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="D336" s="31">
         <v>1944</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="E336" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" thickBot="1">
+    <row r="337" spans="1:5" ht="15.75" thickBot="1">
       <c r="A337" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B337" s="31">
+      <c r="B337" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="D337" s="31">
         <v>1995</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:5">
       <c r="A338" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B338" s="30">
+      <c r="B338" t="s">
+        <v>695</v>
+      </c>
+      <c r="D338" s="30">
         <v>1995</v>
       </c>
-      <c r="C338" s="4" t="s">
+      <c r="E338" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" thickBot="1">
+    <row r="339" spans="1:5" ht="15.75" thickBot="1">
       <c r="A339" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B339" s="26">
+      <c r="B339" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="D339" s="26">
         <v>1995</v>
       </c>
-      <c r="C339" s="13" t="s">
+      <c r="E339" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" thickBot="1">
+    <row r="340" spans="1:5" ht="15.75" thickBot="1">
       <c r="A340" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B340" s="33">
-        <v>1995</v>
-      </c>
-      <c r="C340" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B340" s="20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15.75" thickBot="1">
       <c r="A341" s="20"/>
     </row>
-    <row r="343" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="344" spans="1:3" ht="15.75" thickBot="1">
+    <row r="343" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="344" spans="1:5" ht="15.75" thickBot="1">
       <c r="A344" s="20"/>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:5">
       <c r="A347" s="4"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:5">
       <c r="A350" s="4"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:5">
       <c r="A351" s="4"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:5">
       <c r="A352" s="13"/>
     </row>
     <row r="353" spans="1:4">
